--- a/biology/Botanique/Mucor/Mucor.xlsx
+++ b/biology/Botanique/Mucor/Mucor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mucor est un genre de champignons de l'ordre des Mucorales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Altération des fromages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mucors, appelés populairement « poils de chat » par les transformateurs de lait en fromage, peuvent être responsables d'« accidents de fromagerie »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mucors, appelés populairement « poils de chat » par les transformateurs de lait en fromage, peuvent être responsables d'« accidents de fromagerie ».
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (21 mars 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (21 mars 2012) :
 non-classé Mucor luteus
-Selon ITIS      (21 mars 2012)[3] :
+Selon ITIS      (21 mars 2012) :
 Mucor caninus Pers.
-Selon Catalogue of Life                                   (21 mars 2012)[4] :
+Selon Catalogue of Life                                   (21 mars 2012) :
 Mucor adventitius
 Mucor albus
 Mucor aligarensis
